--- a/data/trans_bre/IMC_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-12,63</t>
+          <t>-9,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,3</t>
+          <t>-10,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,64</t>
+          <t>-6,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-20,73%</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-20,76%</t>
+          <t>-16,13%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-24,13%</t>
+          <t>-17,89%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-11,43%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7,41%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,73; -3,67</t>
+          <t>-19,22; 5,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,52; -2,34</t>
+          <t>-21,48; 3,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,24; -3,42</t>
+          <t>-18,33; 8,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,46; -6,63</t>
+          <t>-7,62; 22,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,79; -4,63</t>
+          <t>-30,58; 11,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,5; -6,59</t>
+          <t>-33,56; 6,64</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-28,26; 18,24</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-13,56; 60,04</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-15,13</t>
+          <t>-18,23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,62</t>
+          <t>-18,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,16</t>
+          <t>-24,66</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-25,25%</t>
+          <t>-20,27</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-21,86%</t>
+          <t>-29,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-29,86%</t>
+          <t>-29,18%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-38,94%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-33,92%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,86; -4,02</t>
+          <t>-30,78; -5,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,2; -2,32</t>
+          <t>-29,73; -6,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,84; -7,96</t>
+          <t>-36,74; -13,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,99; -8,42</t>
+          <t>-32,56; -8,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,68; -4,87</t>
+          <t>-44,5; -9,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,09; -14,42</t>
+          <t>-44,69; -11,49</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-52,86; -23,35</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-49,71; -15,43</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-12,83</t>
+          <t>-29,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-17,69</t>
+          <t>-21,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,38</t>
+          <t>-28,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-18,38%</t>
+          <t>-18,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-25,33%</t>
+          <t>-37,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-13,47%</t>
+          <t>-28,72%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-34,91%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-22,84%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-30,45; 5,51</t>
+          <t>-52,77; -2,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-34,95; 3,31</t>
+          <t>-46,73; 5,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-27,98; 9,61</t>
+          <t>-50,18; -2,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-39,68; 9,23</t>
+          <t>-40,55; 5,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,69; 5,33</t>
+          <t>-60,19; -4,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,78; 16,27</t>
+          <t>-55,51; 8,68</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-57,85; -3,75</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-45,29; 9,22</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-13,78</t>
+          <t>-15,04</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,12</t>
+          <t>-14,81</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,71</t>
+          <t>-16,34</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-22,39%</t>
+          <t>-8,32</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-21,92%</t>
+          <t>-24,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-25,38%</t>
+          <t>-24,08%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-26,38%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-14,41%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,32; -7,12</t>
+          <t>-23,19; -5,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,02; -6,83</t>
+          <t>-22,94; -6,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,12; -8,69</t>
+          <t>-24,01; -6,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,64; -12,48</t>
+          <t>-16,69; 2,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,11; -12,09</t>
+          <t>-34,72; -10,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,82; -15,93</t>
+          <t>-34,89; -11,17</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-36,96; -12,85</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-26,2; 5,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/IMC_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-9,04</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-10,38</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-6,46</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,74</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-16,13%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-17,89%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-11,43%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>7,41%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-10.27579456445167</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-10.90024482257473</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-7.512642985257301</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.679513299945192</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1814270120333374</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.184119030151197</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1304727636293765</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.0727127304367062</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-19,22; 5,76</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-21,48; 3,41</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-18,33; 8,72</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,62; 22,13</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-30,58; 11,62</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-33,56; 6,64</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-28,26; 18,24</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-13,56; 60,04</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-19.92427251779049</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-22.09685233653215</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-19.16871298818745</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-7.787778342128779</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.3232366054176228</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3368705808105145</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2951238140954349</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1347169561370382</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.624671212549268</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.966034541524471</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.892506959924559</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>22.15592830212095</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.07876928450353207</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.03743334495681133</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.1315548668348993</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.611861501518709</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-18,23</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-18,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-24,66</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-20,27</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-29,2%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-29,18%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-38,94%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-33,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-30,78; -5,93</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-29,73; -6,07</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-36,74; -13,47</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-32,56; -8,4</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-44,5; -9,38</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-44,69; -11,49</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-52,86; -23,35</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-49,71; -15,43</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-18.63819848953904</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-15.33645188281759</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-22.89092825480774</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-19.62348588512669</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.2988705406678516</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.2566771271345492</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.3733253120512905</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.3330327220059691</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-29,41</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-21,92</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-28,11</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-18,71</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-37,23%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-28,72%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-34,91%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-22,84%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-31.69379415084508</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-27.65197299115986</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-35.58778565901039</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-31.93168681070059</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.4590423829812645</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4172595606095854</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5228530461364657</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4948452752362071</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-52,77; -2,85</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-46,73; 5,83</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-50,18; -2,59</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-40,55; 5,42</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-60,19; -4,23</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-55,51; 8,68</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-57,85; -3,75</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-45,29; 9,22</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-4.751289914863158</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-2.570381504683529</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-11.36336094770792</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-7.293765398869667</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.08939995217423746</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.04404701169953931</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>-0.2132323657319191</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.1403180552463072</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-15,04</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-14,81</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-16,34</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-8,32</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-24,6%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-24,08%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-26,38%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-14,41%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-32.34264078599058</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-23.31448134247746</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-29.63378811050275</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-18.61760135651013</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.41184597558288</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.3072702746133951</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.3707145289581743</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2292149653924647</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-23,19; -5,76</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-22,94; -6,17</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-24,01; -6,78</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-16,69; 2,99</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-34,72; -10,58</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-34,89; -11,17</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-36,96; -12,85</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-26,2; 5,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-56.70405435874202</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-47.44261917940388</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-51.92469436658654</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-40.92179964719607</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.6374007190273461</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.5656370600574346</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.5952267603119077</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4583250696441079</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-6.774049818558196</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.570221358691861</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-3.155290406830897</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.419737050340143</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>-0.09611604522797756</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.0664005190428415</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>-0.04649862172291504</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.106004223511348</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-15.88158521597997</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-14.02519179181955</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-16.29718911767641</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-8.21874218028713</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.2596735554202422</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.2291816194536318</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2644785265108636</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1429054800365066</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-23.80837510204031</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-22.24060382937519</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-24.0344306878958</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-16.70106274575882</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3600118599762201</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3406657810162421</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3692576614631404</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2647211014551138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-7.216288803619514</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-5.526395477304926</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-6.864299377425801</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.24301024582499</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>-0.1281538127254604</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.1050787322523771</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.1261071491982184</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.06686464539470298</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
